--- a/biology/Médecine/Traumatologie/Traumatologie.xlsx
+++ b/biology/Médecine/Traumatologie/Traumatologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La traumatologie est l'étude médicale des traumatismes physiques, c'est-à-dire des atteintes à la santé résultant d'une action extérieure violente et soudaine.
 </t>
@@ -511,7 +523,9 @@
           <t>Traumatismes par cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traumatisme par choc direct ou indirect : chute, choc, décélération, objet perforant, tranchant ou contondant, et qui entraînent, par ordre de gravité, contusion ou plaie, hématome, entorse, luxation, fracture. Ces lésions intéressent les tissus mous (peau, graisse, muscle), le squelette (os et articulations), et/ou les structures nobles (artères, veines, nerfs, organes).
 Brûlures chimiques (acides et bases) ou thermiques (chaleur intense ou froid intense, flamme, courant électrique).
@@ -543,7 +557,9 @@
           <t>Traumatologie par organe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lésion de la peau : plaie, brûlure
 Traumatisme abdomino-pelvien
@@ -581,7 +597,9 @@
           <t>Traumatismes par domaine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traumatisme psychique
 Traumatologie routière
@@ -613,7 +631,9 @@
           <t>Traitement des traumatismes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine d'urgence concerne la prise en charge immédiate des patients traumatisés et oriente secondairement vers un centre de chirurgie traumatologique en cas de nécessité.
 </t>
